--- a/biology/Zoologie/Bowie_shakeit/Bowie_shakeit.xlsx
+++ b/biology/Zoologie/Bowie_shakeit/Bowie_shakeit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie shakeit est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie shakeit est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sabah en Malaisie[1],[2]. Elle se rencontre vers le bassin de Maliau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sabah en Malaisie,. Elle se rencontre vers le bassin de Maliau.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 8,0 mm de long sur 6,0 mm et l'abdomen 5,6 mm de long sur 3,8 mm et la carapace de la femelle paratype mesure 8,9 mm de long sur 6,6 mm et l'abdomen 8,9 mm de long sur 6,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 8,0 mm de long sur 6,0 mm et l'abdomen 5,6 mm de long sur 3,8 mm et la carapace de la femelle paratype mesure 8,9 mm de long sur 6,6 mm et l'abdomen 8,9 mm de long sur 6,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Jäger en 2022.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à Shake It, la chanson de David Bowie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
